--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -431,10 +431,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antigua_and_Barbuda</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>565</v>
+        <v>709</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1646</v>
+        <v>2196</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1486</v>
+        <v>1795</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -697,11 +697,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -715,11 +715,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -733,11 +733,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bosnia_and_Herzegovina</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -751,14 +751,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -769,14 +769,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Brunei_Darussalam</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>621</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -787,14 +787,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -805,14 +805,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Burkina_Faso</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -823,14 +823,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -841,14 +841,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -859,11 +859,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -877,14 +877,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -895,14 +895,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cases_on_an_international_conveyance_Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>696</v>
+        <v>424</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -913,7 +913,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Central_African_Republic</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -931,11 +931,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -949,14 +949,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>81238</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>3250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -967,11 +967,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,14 +985,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>81337</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="36">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Costa_Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1021,11 +1021,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cote_dIvoire</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1039,14 +1039,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Cote dIvoire</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Czech_Republic</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>522</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Democratic_Republic_of_the_Congo</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1129,14 +1129,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1115</v>
+        <v>694</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dominican_Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>1151</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1219,14 +1219,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>El_Salvador</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Equatorial_Guinea</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1327,14 +1327,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9134</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1345,11 +1345,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>French_Polynesia</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1363,11 +1363,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1381,11 +1381,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>10995</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8198</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1435,11 +1435,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1453,14 +1453,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1471,11 +1471,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>14138</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -1507,11 +1507,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1525,14 +1525,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Holy_See</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1561,11 +1561,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Guernsey</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17361</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>1135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Holy See</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>433</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1723,14 +1723,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35713</v>
+        <v>85</v>
       </c>
       <c r="D76" t="n">
-        <v>2978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1759,14 +1759,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>873</v>
+        <v>191</v>
       </c>
       <c r="D78" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>18407</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="81">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -1831,14 +1831,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>557</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1849,11 +1849,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>142</v>
+        <v>677</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1867,14 +1867,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>41035</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="85">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1903,14 +1903,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>133</v>
+        <v>1646</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1975,14 +1975,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>790</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2029,11 +2029,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2047,11 +2047,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2065,14 +2065,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2101,11 +2101,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2119,11 +2119,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2137,14 +2137,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>54</v>
+        <v>900</v>
       </c>
       <c r="D100" t="n">
         <v>2</v>
@@ -2173,11 +2173,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2209,11 +2209,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2051</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>New_Zealand</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2263,14 +2263,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="C106" t="n">
+        <v>49</v>
+      </c>
+      <c r="D106" t="n">
         <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2281,11 +2281,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>North_Macedonia</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1423</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2335,14 +2335,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2353,11 +2353,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2371,11 +2371,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2389,14 +2389,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2407,14 +2407,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>2460</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115">
@@ -2425,11 +2425,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Netherlands Antilles</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2443,14 +2443,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2479,14 +2479,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2497,11 +2497,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>452</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2515,14 +2515,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>260</v>
+        <v>1552</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -2533,11 +2533,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2551,14 +2551,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -2569,11 +2569,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Saint_Lucia</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2587,14 +2587,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Saint_Vincent_and_the_Grenadines</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C124" t="n">
+        <v>137</v>
+      </c>
+      <c r="D124" t="n">
         <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>San_Marino</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2623,14 +2623,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Saudi_Arabia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2641,14 +2641,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -2659,14 +2659,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>785</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2731,14 +2731,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2749,11 +2749,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>South_Africa</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2785,14 +2785,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>South_Korea</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8565</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>13716</v>
+        <v>126</v>
       </c>
       <c r="D136" t="n">
-        <v>598</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sri_Lanka</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2839,14 +2839,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2857,11 +2857,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1301</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2893,14 +2893,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3010</v>
+        <v>345</v>
       </c>
       <c r="D141" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2911,14 +2911,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Trinidad_and_Tobago</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2983,14 +2983,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>29</v>
+        <v>8652</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
@@ -3001,14 +3001,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>191</v>
+        <v>17147</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>767</v>
       </c>
     </row>
     <row r="148">
@@ -3019,14 +3019,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3037,14 +3037,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>United_Arab_Emirates</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3055,14 +3055,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>United_Kingdom</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2630</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3073,14 +3073,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>United_Republic_of_Tanzania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>1423</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -3091,14 +3091,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>United_States_of_America</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9415</v>
+        <v>3888</v>
       </c>
       <c r="D152" t="n">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
@@ -3109,14 +3109,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3127,14 +3127,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3145,11 +3145,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3163,11 +3163,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3181,13 +3181,211 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>39</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>359</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>26</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>140</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3277</v>
+      </c>
+      <c r="D161" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>United Republic of Tanzania</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>United States Of America</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>14250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>94</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>33</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>85</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Zambia</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C168" t="n">
         <v>2</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D168" t="n">
         <v>0</v>
       </c>
     </row>
